--- a/CO2 komilis vrai.xlsx
+++ b/CO2 komilis vrai.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hravoaha\Desktop\Thèse\composting code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A328676A-CAF3-4CD9-B8FA-3AA4ED46F3A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775F5E0B-666A-4FC7-8F5C-D241528F0662}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Default Dataset (15)" sheetId="1" r:id="rId1"/>
+    <sheet name="FW" sheetId="1" r:id="rId1"/>
+    <sheet name="FWGW" sheetId="2" r:id="rId2"/>
+    <sheet name="GW" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>t</t>
   </si>
@@ -36,11 +38,17 @@
   <si>
     <t>CCO2(%Cinitial)</t>
   </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>CCO2(kg/kgTM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,7 +642,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Default Dataset (15)'!$B$1</c:f>
+              <c:f>FW!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -657,7 +665,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Default Dataset (15)'!$A$2:$A$97</c:f>
+              <c:f>FW!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -954,7 +962,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Default Dataset (15)'!$B$2:$B$97</c:f>
+              <c:f>FW!$B$2:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1498,883 +1506,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Default Dataset (15)'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CCO2(kg/kgTM)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Default Dataset (15)'!$A$2:$A$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.999999999999801</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>215.99999999999901</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>311.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>359.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>383.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>431.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>503.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>551.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>575.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>599.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>624</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>648</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>696</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>744</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>768</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>792</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>815.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>839.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>864</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>888</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>911.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>935.99999999999898</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1055.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1079.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1103.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1127.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1151.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1175.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1199.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1223.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1247.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1271.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1296</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1319.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1344</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1367.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1391.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1415.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1463.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1487.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1511.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1535.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1559.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1583.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1607.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1631.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1655.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1679.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1704</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1727.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1751.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1776</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1799.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1823.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1847.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1871.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1896</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1919.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1943.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1967.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1991.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2015.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2039.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2063.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2088</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2112</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2136</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2159.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2184</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2207.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2231.99999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2256</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2279.99999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Default Dataset (15)'!$C$2:$C$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.203934014844547E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1263089504926804E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6281777387367209E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3448648066411538E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8710156020828933E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1717801381216645E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.4000557764144998E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.6249432094952787E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8274707820325403E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9895420442481025E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.1211079448416073E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.2955126732983982E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4425038427148185E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.6264617499886723E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.8213451281151579E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.9031813682153529E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9841515202592952E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.091985136174243E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.1930667131749902E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2993221228254353E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.413904964714833E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.559028575989846E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.652119930635037E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.7173147543968669E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.8007516476044442E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.853208127311859E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.8970847807478098E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.9916410000223831E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.0535829919514936E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.0918434001752876E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.1490004868161648E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.2013235892980037E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.2409300099044419E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.2658202500217169E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.2942149856133639E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.3108985297199299E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.3377670143106898E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.3860196031589989E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.4191223262805436E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.4359104207760379E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.4751658486291414E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.507622182558985E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.550363168229327E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.6037675881342892E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.6306449136431481E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.679819407440192E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.7259163872292194E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.75062224069886E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.7754497587383236E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.8231765231716576E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.8711631576959059E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.8905310563346436E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.9193395072434841E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.9425477441395309E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6.9548658251021869E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.9988392531523599E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.0324922901604331E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.034816285001308E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.0592176121076738E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7.0832970197051981E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7.1086894776629536E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.1276454526288613E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7.1511433625855353E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.1727495831358484E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7.1892842525158818E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7.214814700788616E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7.2288915235534601E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7.2396710572278519E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7.2702356232322102E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7.3080882820745291E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7.3301454824104065E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7.330854289522637E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.3313625968321111E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.3398568758003074E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.3543930189092069E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.3730684870261354E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.4090508765817104E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.4324568362478832E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.4381654024732236E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.4548928995849334E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.484715033903197E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7.506122599894946E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>7.5230403661057044E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7.5499698313992517E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7.5605311098890363E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7.5638370937050586E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.5729421421669815E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>7.5877273571727175E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7.6324056471693227E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.6573369699823826E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>7.6594915447637982E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.681971423143702E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>7.709645112057481E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7.7173276829320764E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>7.7284371740155428E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE5F-40D8-AE89-29565FDECA02}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="744272783"/>
-        <c:axId val="878131871"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="744272783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="878131871"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="878131871"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="744272783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Default Dataset (15)'!$D$1</c:f>
+              <c:f>FW!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2407,7 +1539,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Default Dataset (15)'!$A$2:$A$97</c:f>
+              <c:f>FW!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -2704,7 +1836,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Default Dataset (15)'!$D$2:$D$97</c:f>
+              <c:f>FW!$D$2:$D$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -3193,6 +2325,2658 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FWGW!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CCO2(kg/kgTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FWGW!$A$2:$A$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>287.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>311.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>335.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>359.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>383.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>407.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>431.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>455.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>503.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>527.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>551.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>575.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>599.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>623.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>647.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>671.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>695.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>719.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>743.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>791.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>815.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>839.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>863.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>887.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>911.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>935.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>959.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>983.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1007.99999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1223.99999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1344</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1632</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1656</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1752</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2208</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2256</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2328</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2376</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2399.99999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2424</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2448</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2472</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2544</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2568</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2664</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2712</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FWGW!$C$2:$C$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2610230268710445E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2785312000923138E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.115756300379722E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7912844467500857E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4839609448322276E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9669920286780347E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2691215109437651E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5105025462262853E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.85468766755826E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.32432609445814E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7545332384558542E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2932382325431496E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5207030598050941E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7688909714612541E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0456699603901093E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2968822292939287E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5283237508175546E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.6991091981743795E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8488025714513437E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9896996460785699E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.0032536895244491E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0493519731081792E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.1108450258060391E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1313401765419943E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1733546573209997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1736785421125446E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.2197272924796755E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.2295950363819134E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.2308453552743244E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.2236168878410745E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.2928461890279595E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2888152334820692E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.2866882732736194E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.3611616876042141E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.4108533532315247E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6019775698691098E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7968862685993798E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.9330506328749004E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0052801563309887E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.01539783103638E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0927739910321298E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.1692979470844482E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.2949567475962738E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.2955695371246053E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.3352893149088303E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.3885935123864436E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.4159556209268885E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.4651922841292951E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.51246477576871E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.5412884668557379E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.5353577405794393E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.6339207950552341E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.6510656167687642E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.6562792973192008E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.6505613809778942E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.7101469749142591E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.7570543391890793E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.7989850068578993E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.8030802297686306E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.8197778484663198E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.8327131430792941E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.8671737257511591E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.8603683978774795E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.8649101858423544E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.8962362312470298E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.8928019939513806E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.8926019596906584E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.8913576394232247E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.9237940748465397E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.9540473333768947E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.9710537508419947E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.10036704682770009</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.9725074688123139E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.1001179856570915</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.10021774401896286</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.10043235576726904</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.10041709816062365</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.10043549154185576</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.10039422814847195</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.10098059730128335</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.10070304998276949</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.10076400298873335</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.10136730145263505</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.10130703325441474</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.10134638612508129</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.1020511740709748</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.10219857737140835</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.10222264087004548</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.10193276350748259</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.10187245079587588</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.1024205932599626</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.10293492539607094</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.10310303806871424</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.10323884596652094</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1033348795053057</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.1033836691008828</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.1033344233362679</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.10315545331228829</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.10307744029944478</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.1031179997642193</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.10343986188993801</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.10356004827169818</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.10365409267370043</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.10370861514326005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.10372521332385835</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.10379683894227761</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.1042310518260165</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.10423551865824406</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.10452742307104824</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.10426168549903821</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.10430490219906119</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.1042391661609872</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.10493369873083755</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.1048462331345954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8374-4CA8-9D44-878AE850FC28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="962905151"/>
+        <c:axId val="897587711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="962905151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="897587711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="897587711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="962905151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FWGW!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2(kg/kgTM)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FWGW!$A$2:$A$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>287.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>311.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>335.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>359.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>383.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>407.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>431.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>455.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>503.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>527.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>551.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>575.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>599.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>623.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>647.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>671.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>695.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>719.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>743.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>791.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>815.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>839.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>863.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>887.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>911.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>935.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>959.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>983.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1007.99999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1223.99999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1344</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1632</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1656</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1752</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2064</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2208</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2256</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2328</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2376</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2399.99999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2424</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2448</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2472</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2544</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2568</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2664</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2712</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FWGW!$D$2:$D$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9290417765193829E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.687947733671817E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7577731013923137E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10234709638083647</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12774523464384835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14545637438486125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15653445540127139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16538509336163046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17800521447713619</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19522529013013179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21099955207671464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23075206852658214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23909244552618678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2481926689535793</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25834123188097069</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26755234840744402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27603853752997698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28230067059972724</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28778942761988258</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29295565368954757</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2934526352825631</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29514290568063323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.29739765094622145</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.29814913980653979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29968967076843667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.29970154654412662</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30139000072425476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.30175181800067014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30179766302672523</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3015326192208394</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30407102693102517</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30392322522767584</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.30384523668669938</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.30657592854548782</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30839795628515587</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31540584422853402</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.32255249651531059</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.32754518987207965</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.33019360573213624</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.33056458713800058</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33340171300451144</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.33620759139309642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.34081508074519667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.34083754969456886</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.3422939415466571</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.34424842878750289</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34525170610065259</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.34705705041807416</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.34879037511151934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.34984724378471038</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.3496297838212461</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.35324376248535855</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.35387240594818803</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.35406357423503737</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.35385391730252275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.3560387224135228</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.35775865910359955</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.35929611691812297</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.35944627509151644</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.36005852111043168</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.36053281524624076</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.36179636994420916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.36154684125550757</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.36171337348088634</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.36286199514572443</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.36273607311155059</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.36272873852199078</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.36268311344551823</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.3638724494110398</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.3649817355571528</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.36560530419753978</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.36801250503490029</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.36565860718978482</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.36709928074266879</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.36746506140286378</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.36825197114665315</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.36819602658895334</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.3682634689868044</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.36811216987773043</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.37026219010470562</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.36924451660348812</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.36946801095868892</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.3716801053263285</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.37145912193285402</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.37160341579196471</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.37418763826024093</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.37472811702849723</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.37481634985683343</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.37375346619410282</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.3735323195848782</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.3755421752865295</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.37742805978559341</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.37804447291861887</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.37854243521057679</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.37889455818612089</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.37907345336990356</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.37889288556631562</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.37823666214505702</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.37795061443129752</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.37809933246880406</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.37927949359643937</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.37972017699622662</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.38006500647023489</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.38026492219195351</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.38032578218748059</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.38058840945501787</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.38218052336206049</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.38219690174689486</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.38326721792717688</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.38229284682980674</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.38245130806322436</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.38221027592361972</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.38475689534640434</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.3844361881601831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F57-4B3E-9DB4-66B94FAD8537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="916615215"/>
+        <c:axId val="966633167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="916615215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966633167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="966633167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916615215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GW!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2(kg/kgTM)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GW!$A$2:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239.99999999999901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>287.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>311.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>335.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>359.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>383.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>407.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>431.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>455.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>479.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>503.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>527.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>551.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>575.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>599.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>623.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>647.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>671.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>695.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>719.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>743.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>767.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>791.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>815.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>839.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>863.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>887.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>911.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>935.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>959.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>983.99999999999898</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1007.99999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1344</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GW!$D$2:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5329737227563239E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0693959814855418E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.558661195941932E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1624406763093427E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10814857822875258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11934214395273014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12933512236495875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14411294244393968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15061708849457781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16868456803272305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17684682963661044</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18632166434080941</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19273500935250482</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19906004300717534</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20454334290935031</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21326662103010238</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21826730070909481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22180382859506534</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22931517581207872</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23139182210333289</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23678697531890169</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23919995826950299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24348276277228489</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24788509185563579</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25213139338093116</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2541517411049809</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25706382504655029</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25792726417489958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26174544843831998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2660609482055884</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27000976911448799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2709070336732195</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27315350529503701</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27544677205509432</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.28379095896042683</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29163239857727491</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.29894005417942432</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.3034159599714063</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.30690234292048096</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.31240455582269139</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.31746934328501697</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.32013434544224723</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.32443209550151914</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.32844770370583581</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.33093147455376209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.33501393033957944</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.33845639953177997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.34087084785960098</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.34727271657036413</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.3456310613762904</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.34919184801520886</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.35192856907686682</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.35283471508597486</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.3574373166433274</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.3577308885157135</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.36112204148821947</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.36185615337931154</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.36195939279817496</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.36166863845247521</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.36472492307155896</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.3685948376753963</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.36923015616774335</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.37240771755258223</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.37615204578745637</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.37454408587654775</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.37464301376409731</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.37791540326013573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FE9-4CB7-A260-1B2A3DDE4AB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="913716975"/>
+        <c:axId val="1865961231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="913716975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865961231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1865961231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913716975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3313,6 +5097,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4346,6 +6210,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4902,51 +7798,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>96837</xdr:rowOff>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>131762</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADDBE59-6CB5-4B01-A42C-FF5977717756}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>11112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>46037</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4965,7 +7825,125 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F526FB-1BFD-45C4-9A31-1B9D14854455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DF3538-DCD0-4E62-A8F6-BDB57EE2B07A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813AFFDF-5F9E-48BF-AD49-A78F505673F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5270,11 +8248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7220,4 +10198,2992 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AE6DCD-2943-4BDF-B51B-2C95FA233FDC}">
+  <dimension ref="A1:D116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>B2*(1-0.65)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>C2*(0.044/0.012)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>1.50314943624887E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3*(1-0.65)</f>
+        <v>5.2610230268710445E-3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">C3*(0.044/0.012)</f>
+        <v>1.9290417765193829E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>47.999999999999801</v>
+      </c>
+      <c r="B4">
+        <v>3.6529462859780398E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.2785312000923138E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>4.687947733671817E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>71.999999999999801</v>
+      </c>
+      <c r="B5">
+        <v>6.0450180010849203E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.115756300379722E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>7.7577731013923137E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>95.999999999999801</v>
+      </c>
+      <c r="B6">
+        <v>7.97509841928596E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.7912844467500857E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.10234709638083647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>119.99999999999901</v>
+      </c>
+      <c r="B7">
+        <v>9.9541741280920804E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3.4839609448322276E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.12774523464384835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>143.99999999999901</v>
+      </c>
+      <c r="B8">
+        <v>0.113342629390801</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.9669920286780347E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.14545637438486125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>167.99999999999901</v>
+      </c>
+      <c r="B9">
+        <v>0.121974900312679</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4.2691215109437651E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.15653445540127139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>0.12887150132075101</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4.5105025462262853E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.16538509336163046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>215.99999999999901</v>
+      </c>
+      <c r="B11">
+        <v>0.138705361930236</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>4.85468766755826E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.17800521447713619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>239.99999999999901</v>
+      </c>
+      <c r="B12">
+        <v>0.15212360269880401</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>5.32432609445814E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.19522529013013179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>263.99999999999898</v>
+      </c>
+      <c r="B13">
+        <v>0.16441523538445299</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>5.7545332384558542E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.21099955207671464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>287.99999999999898</v>
+      </c>
+      <c r="B14">
+        <v>0.17980680664408999</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>6.2932382325431496E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.23075206852658214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>311.99999999999898</v>
+      </c>
+      <c r="B15">
+        <v>0.18630580170871699</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>6.5207030598050941E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.23909244552618678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>335.99999999999898</v>
+      </c>
+      <c r="B16">
+        <v>0.19339688489889301</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>6.7688909714612541E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.2481926689535793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>359.99999999999898</v>
+      </c>
+      <c r="B17">
+        <v>0.20130485601114601</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>7.0456699603901093E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.25834123188097069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>383.99999999999898</v>
+      </c>
+      <c r="B18">
+        <v>0.20848234940839799</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>7.2968822292939287E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.26755234840744402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>407.99999999999898</v>
+      </c>
+      <c r="B19">
+        <v>0.21509496430907299</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>7.5283237508175546E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.27603853752997698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>431.99999999999898</v>
+      </c>
+      <c r="B20">
+        <v>0.21997454851926801</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>7.6991091981743795E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.28230067059972724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>455.99999999999898</v>
+      </c>
+      <c r="B21">
+        <v>0.22425150204146699</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>7.8488025714513437E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.28778942761988258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>480</v>
+      </c>
+      <c r="B22">
+        <v>0.228277132745102</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>7.9896996460785699E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.29295565368954757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>503.99999999999898</v>
+      </c>
+      <c r="B23">
+        <v>0.22866439112927001</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>8.0032536895244491E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.2934526352825631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>527.99999999999898</v>
+      </c>
+      <c r="B24">
+        <v>0.229981484945948</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>8.0493519731081792E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.29514290568063323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>551.99999999999898</v>
+      </c>
+      <c r="B25">
+        <v>0.231738429308744</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>8.1108450258060391E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.29739765094622145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>575.99999999999898</v>
+      </c>
+      <c r="B26">
+        <v>0.23232400504405701</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>8.1313401765419943E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.29814913980653979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>599.99999999999898</v>
+      </c>
+      <c r="B27">
+        <v>0.23352441878060001</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>8.1733546573209997E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.29968967076843667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>623.99999999999898</v>
+      </c>
+      <c r="B28">
+        <v>0.23353367263178701</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>8.1736785421125446E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.29970154654412662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>647.99999999999898</v>
+      </c>
+      <c r="B29">
+        <v>0.23484935121370501</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>8.2197272924796755E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.30139000072425476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>671.99999999999898</v>
+      </c>
+      <c r="B30">
+        <v>0.23513128675376899</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>8.2295950363819134E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.30175181800067014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>695.99999999999898</v>
+      </c>
+      <c r="B31">
+        <v>0.23516701015069499</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>8.2308453552743244E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.30179766302672523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>719.99999999999898</v>
+      </c>
+      <c r="B32">
+        <v>0.23496048250974499</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>8.2236168878410745E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.3015326192208394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>743.99999999999898</v>
+      </c>
+      <c r="B33">
+        <v>0.236938462543656</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>8.2928461890279595E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.30407102693102517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>768</v>
+      </c>
+      <c r="B34">
+        <v>0.236823292385202</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>8.2888152334820692E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.30392322522767584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>791.99999999999898</v>
+      </c>
+      <c r="B35">
+        <v>0.23676252209353199</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>8.2866882732736194E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.30384523668669938</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>815.99999999999898</v>
+      </c>
+      <c r="B36">
+        <v>0.23889033393154899</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>8.3611616876042141E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.30657592854548782</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>839.99999999999898</v>
+      </c>
+      <c r="B37">
+        <v>0.240310095806615</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>8.4108533532315247E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.30839795628515587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>863.99999999999898</v>
+      </c>
+      <c r="B38">
+        <v>0.245770787710546</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>8.6019775698691098E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.31540584422853402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>887.99999999999898</v>
+      </c>
+      <c r="B39">
+        <v>0.251339607674268</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>8.7968862685993798E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.32255249651531059</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>911.99999999999898</v>
+      </c>
+      <c r="B40">
+        <v>0.25523001808214002</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>8.9330506328749004E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.32754518987207965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>935.99999999999898</v>
+      </c>
+      <c r="B41">
+        <v>0.25729371875231399</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>9.0052801563309887E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.33019360573213624</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>959.99999999999898</v>
+      </c>
+      <c r="B42">
+        <v>0.25758279517246802</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>9.01539783103638E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.33056458713800058</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>983.99999999999898</v>
+      </c>
+      <c r="B43">
+        <v>0.25979354260091803</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>9.0927739910321298E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0.33340171300451144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1007.99999999999</v>
+      </c>
+      <c r="B44">
+        <v>0.26197994134526997</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>9.1692979470844482E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0.33620759139309642</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1032</v>
+      </c>
+      <c r="B45">
+        <v>0.265570192788465</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>9.2949567475962738E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0.34081508074519667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1056</v>
+      </c>
+      <c r="B46">
+        <v>0.26558770106070301</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>9.2955695371246053E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0.34083754969456886</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1080</v>
+      </c>
+      <c r="B47">
+        <v>0.26672255185453803</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>9.3352893149088303E-2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>0.3422939415466571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1104</v>
+      </c>
+      <c r="B48">
+        <v>0.26824552892532699</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>9.3885935123864436E-2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0.34424842878750289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1128</v>
+      </c>
+      <c r="B49">
+        <v>0.26902730345505399</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>9.4159556209268885E-2</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0.34525170610065259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1152</v>
+      </c>
+      <c r="B50">
+        <v>0.27043406526083702</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>9.4651922841292951E-2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>0.34705705041807416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1176</v>
+      </c>
+      <c r="B51">
+        <v>0.27178470787910602</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>9.51246477576871E-2</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0.34879037511151934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1200</v>
+      </c>
+      <c r="B52">
+        <v>0.27260824191016397</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>9.5412884668557379E-2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0.34984724378471038</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1223.99999999999</v>
+      </c>
+      <c r="B53">
+        <v>0.27243879258798398</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>9.5353577405794393E-2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0.3496297838212461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1248</v>
+      </c>
+      <c r="B54">
+        <v>0.27525487985872099</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>9.6339207950552341E-2</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0.35324376248535855</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1272</v>
+      </c>
+      <c r="B55">
+        <v>0.27574473190767901</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>9.6510656167687642E-2</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>0.35387240594818803</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1296</v>
+      </c>
+      <c r="B56">
+        <v>0.27589369420912002</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>9.6562792973192008E-2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>0.35406357423503737</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1320</v>
+      </c>
+      <c r="B57">
+        <v>0.27573032517079699</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>9.6505613809778942E-2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>0.35385391730252275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1344</v>
+      </c>
+      <c r="B58">
+        <v>0.27743277071183597</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>9.7101469749142591E-2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>0.3560387224135228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1368</v>
+      </c>
+      <c r="B59">
+        <v>0.27877298111968801</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>9.7570543391890793E-2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>0.35775865910359955</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1392</v>
+      </c>
+      <c r="B60">
+        <v>0.27997100019594001</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>9.7989850068578993E-2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>0.35929611691812297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1416</v>
+      </c>
+      <c r="B61">
+        <v>0.28008800656481803</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>9.8030802297686306E-2</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0.35944627509151644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1440</v>
+      </c>
+      <c r="B62">
+        <v>0.280565081384752</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>9.8197778484663198E-2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>0.36005852111043168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1464</v>
+      </c>
+      <c r="B63">
+        <v>0.28093466123083699</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>9.8327131430792941E-2</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>0.36053281524624076</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1488</v>
+      </c>
+      <c r="B64">
+        <v>0.28191924930717599</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>9.8671737257511591E-2</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>0.36179636994420916</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1512</v>
+      </c>
+      <c r="B65">
+        <v>0.28172481136792799</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>9.8603683978774795E-2</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0.36154684125550757</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1536</v>
+      </c>
+      <c r="B66">
+        <v>0.28185457673835301</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>9.8649101858423544E-2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>0.36171337348088634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1560</v>
+      </c>
+      <c r="B67">
+        <v>0.282749606607058</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C116" si="2">B67*(1-0.65)</f>
+        <v>9.8962362312470298E-2</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D116" si="3">C67*(0.044/0.012)</f>
+        <v>0.36286199514572443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1584</v>
+      </c>
+      <c r="B68">
+        <v>0.28265148554146802</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>9.8928019939513806E-2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>0.36273607311155059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1608</v>
+      </c>
+      <c r="B69">
+        <v>0.28264577027687598</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>9.8926019596906584E-2</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>0.36272873852199078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1632</v>
+      </c>
+      <c r="B70">
+        <v>0.28261021826923499</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>9.8913576394232247E-2</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>0.36268311344551823</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1656</v>
+      </c>
+      <c r="B71">
+        <v>0.28353697356704399</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>9.9237940748465397E-2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>0.3638724494110398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1680</v>
+      </c>
+      <c r="B72">
+        <v>0.28440135238219699</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>9.9540473333768947E-2</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>0.3649817355571528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1704</v>
+      </c>
+      <c r="B73">
+        <v>0.28488725002405701</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>9.9710537508419947E-2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>0.36560530419753978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1728</v>
+      </c>
+      <c r="B74">
+        <v>0.28676299093628599</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>0.10036704682770009</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>0.36801250503490029</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1752</v>
+      </c>
+      <c r="B75">
+        <v>0.28492878482320899</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>9.9725074688123139E-2</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>0.36565860718978482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1776</v>
+      </c>
+      <c r="B76">
+        <v>0.28605138759169002</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>0.1001179856570915</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>0.36709928074266879</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1800</v>
+      </c>
+      <c r="B77">
+        <v>0.28633641148275102</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>0.10021774401896286</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>0.36746506140286378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1824</v>
+      </c>
+      <c r="B78">
+        <v>0.28694958790648301</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>0.10043235576726904</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>0.36825197114665315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1848</v>
+      </c>
+      <c r="B79">
+        <v>0.28690599474463901</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>0.10041709816062365</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>0.36819602658895334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1872</v>
+      </c>
+      <c r="B80">
+        <v>0.28695854726244502</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>0.10043549154185576</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>0.3682634689868044</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1896</v>
+      </c>
+      <c r="B81">
+        <v>0.28684065185277702</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>0.10039422814847195</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>0.36811216987773043</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>1920</v>
+      </c>
+      <c r="B82">
+        <v>0.28851599228938102</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>0.10098059730128335</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>0.37026219010470562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1944</v>
+      </c>
+      <c r="B83">
+        <v>0.28772299995077</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>0.10070304998276949</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>0.36924451660348812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>1968</v>
+      </c>
+      <c r="B84">
+        <v>0.287897151396381</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>0.10076400298873335</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>0.36946801095868892</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1992</v>
+      </c>
+      <c r="B85">
+        <v>0.28962086129324299</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>0.10136730145263505</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>0.3716801053263285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2016</v>
+      </c>
+      <c r="B86">
+        <v>0.289448666441185</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>0.10130703325441474</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>0.37145912193285402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2040</v>
+      </c>
+      <c r="B87">
+        <v>0.289561103214518</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>0.10134638612508129</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>0.37160341579196471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2064</v>
+      </c>
+      <c r="B88">
+        <v>0.29157478305992801</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>0.1020511740709748</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>0.37418763826024093</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2088</v>
+      </c>
+      <c r="B89">
+        <v>0.29199593534688101</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>0.10219857737140835</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>0.37472811702849723</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2112</v>
+      </c>
+      <c r="B90">
+        <v>0.29206468820012998</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>0.10222264087004548</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>0.37481634985683343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2136</v>
+      </c>
+      <c r="B91">
+        <v>0.29123646716423601</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>0.10193276350748259</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>0.37375346619410282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2160</v>
+      </c>
+      <c r="B92">
+        <v>0.29106414513107398</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>0.10187245079587588</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>0.3735323195848782</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2184</v>
+      </c>
+      <c r="B93">
+        <v>0.29263026645703599</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>0.1024205932599626</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>0.3755421752865295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2208</v>
+      </c>
+      <c r="B94">
+        <v>0.29409978684591698</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>0.10293492539607094</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>0.37742805978559341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2232</v>
+      </c>
+      <c r="B95">
+        <v>0.29458010876775498</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>0.10310303806871424</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>0.37804447291861887</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2256</v>
+      </c>
+      <c r="B96">
+        <v>0.29496813133291699</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>0.10323884596652094</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>0.37854243521057679</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2280</v>
+      </c>
+      <c r="B97">
+        <v>0.29524251287230202</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>0.1033348795053057</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>0.37889455818612089</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2304</v>
+      </c>
+      <c r="B98">
+        <v>0.295381911716808</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>0.1033836691008828</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>0.37907345336990356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2328</v>
+      </c>
+      <c r="B99">
+        <v>0.29524120953219402</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>0.1033344233362679</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>0.37889288556631562</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2352</v>
+      </c>
+      <c r="B100">
+        <v>0.29472986660653799</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="2"/>
+        <v>0.10315545331228829</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>0.37823666214505702</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2376</v>
+      </c>
+      <c r="B101">
+        <v>0.29450697228412798</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="2"/>
+        <v>0.10307744029944478</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>0.37795061443129752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2399.99999999999</v>
+      </c>
+      <c r="B102">
+        <v>0.294622856469198</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="2"/>
+        <v>0.1031179997642193</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="3"/>
+        <v>0.37809933246880406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2424</v>
+      </c>
+      <c r="B103">
+        <v>0.29554246254268002</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="2"/>
+        <v>0.10343986188993801</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="3"/>
+        <v>0.37927949359643937</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2448</v>
+      </c>
+      <c r="B104">
+        <v>0.29588585220485197</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="2"/>
+        <v>0.10356004827169818</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="3"/>
+        <v>0.37972017699622662</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2472</v>
+      </c>
+      <c r="B105">
+        <v>0.29615455049628697</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="2"/>
+        <v>0.10365409267370043</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="3"/>
+        <v>0.38006500647023489</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2496</v>
+      </c>
+      <c r="B106">
+        <v>0.296310328980743</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="2"/>
+        <v>0.10370861514326005</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="3"/>
+        <v>0.38026492219195351</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2520</v>
+      </c>
+      <c r="B107">
+        <v>0.29635775235388101</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="2"/>
+        <v>0.10372521332385835</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="3"/>
+        <v>0.38032578218748059</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2544</v>
+      </c>
+      <c r="B108">
+        <v>0.29656239697793602</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="2"/>
+        <v>0.10379683894227761</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="3"/>
+        <v>0.38058840945501787</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2568</v>
+      </c>
+      <c r="B109">
+        <v>0.29780300521719</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="2"/>
+        <v>0.1042310518260165</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="3"/>
+        <v>0.38218052336206049</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2592</v>
+      </c>
+      <c r="B110">
+        <v>0.29781576759498302</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="2"/>
+        <v>0.10423551865824406</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="3"/>
+        <v>0.38219690174689486</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2616</v>
+      </c>
+      <c r="B111">
+        <v>0.29864978020299499</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="2"/>
+        <v>0.10452742307104824</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="3"/>
+        <v>0.38326721792717688</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2640</v>
+      </c>
+      <c r="B112">
+        <v>0.29789052999725202</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="2"/>
+        <v>0.10426168549903821</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="3"/>
+        <v>0.38229284682980674</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2664</v>
+      </c>
+      <c r="B113">
+        <v>0.29801400628303198</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="2"/>
+        <v>0.10430490219906119</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="3"/>
+        <v>0.38245130806322436</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2688</v>
+      </c>
+      <c r="B114">
+        <v>0.29782618903139202</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="2"/>
+        <v>0.1042391661609872</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="3"/>
+        <v>0.38221027592361972</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2712</v>
+      </c>
+      <c r="B115">
+        <v>0.29981056780239301</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="2"/>
+        <v>0.10493369873083755</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="3"/>
+        <v>0.38475689534640434</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2736</v>
+      </c>
+      <c r="B116">
+        <v>0.29956066609884402</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="2"/>
+        <v>0.1048462331345954</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="3"/>
+        <v>0.3844361881601831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73AEB4A-508A-41E8-8D5E-FD45AA026EDF}">
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>B2*(1-0.65)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>C2*(0.044/0.012)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>2.7529665372127199E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3*(1-0.65)</f>
+        <v>9.6353828802445193E-3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">C3*(0.044/0.012)</f>
+        <v>3.5329737227563239E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>4.7293994660926299E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.6552898131324205E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>6.0693959814855418E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>71.999999999999801</v>
+      </c>
+      <c r="B5">
+        <v>5.8898658669677403E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.0614530534387089E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>7.558661195941932E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>95.999999999999801</v>
+      </c>
+      <c r="B6">
+        <v>7.1395641633579296E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.4988474571752753E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>9.1624406763093427E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>119.99999999999901</v>
+      </c>
+      <c r="B7">
+        <v>8.4271619399027997E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.9495066789659796E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.10814857822875258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>143.99999999999901</v>
+      </c>
+      <c r="B8">
+        <v>9.2993878404724797E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.2547857441653678E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.11934214395273014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>167.99999999999901</v>
+      </c>
+      <c r="B9">
+        <v>0.10078061482983799</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3.5273215190443297E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.12933512236495875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>191.99999999999901</v>
+      </c>
+      <c r="B10">
+        <v>0.112295799306966</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3.9303529757438095E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.14411294244393968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>215.99999999999901</v>
+      </c>
+      <c r="B11">
+        <v>0.11736396506070999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>4.1077387771248496E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.15061708849457781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>239.99999999999901</v>
+      </c>
+      <c r="B12">
+        <v>0.13144252054497901</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>4.6004882190742655E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.16868456803272305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>263.99999999999898</v>
+      </c>
+      <c r="B13">
+        <v>0.13780272439216401</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>4.8230953537257398E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.17684682963661044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>287.99999999999898</v>
+      </c>
+      <c r="B14">
+        <v>0.14518571247335799</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5.0814999365675295E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.18632166434080941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>311.99999999999898</v>
+      </c>
+      <c r="B15">
+        <v>0.150183124170783</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5.2564093459774044E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.19273500935250482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>335.99999999999898</v>
+      </c>
+      <c r="B16">
+        <v>0.155111721823773</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5.4289102638320548E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.19906004300717534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>359.99999999999898</v>
+      </c>
+      <c r="B17">
+        <v>0.159384423046247</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5.5784548066186448E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.20454334290935031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>383.99999999999898</v>
+      </c>
+      <c r="B18">
+        <v>0.166181782620859</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>5.816362391730065E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.21326662103010238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>407.99999999999898</v>
+      </c>
+      <c r="B19">
+        <v>0.17007841613695701</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5.9527445647934947E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.21826730070909481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>431.99999999999898</v>
+      </c>
+      <c r="B20">
+        <v>0.17283415215199899</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>6.0491953253199643E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.22180382859506534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>455.99999999999898</v>
+      </c>
+      <c r="B21">
+        <v>0.17868714998343799</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>6.2540502494203287E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.22931517581207872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>479.99999999999898</v>
+      </c>
+      <c r="B22">
+        <v>0.180305315924675</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>6.310686057363625E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.23139182210333289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>503.99999999999898</v>
+      </c>
+      <c r="B23">
+        <v>0.18450933141732601</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>6.4578265996064102E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.23678697531890169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>527.99999999999898</v>
+      </c>
+      <c r="B24">
+        <v>0.18638957787234001</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6.5236352255319E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.23919995826950299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>551.99999999999898</v>
+      </c>
+      <c r="B25">
+        <v>0.18972682813424799</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>6.6404389846986794E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.24348276277228489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>575.99999999999898</v>
+      </c>
+      <c r="B26">
+        <v>0.19315721443296299</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6.7605025051537038E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.24788509185563579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>599.99999999999898</v>
+      </c>
+      <c r="B27">
+        <v>0.19646602081631001</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>6.8763107285708502E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.25213139338093116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>623.99999999999898</v>
+      </c>
+      <c r="B28">
+        <v>0.19804031774414099</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>6.9314111210449336E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.2541517411049809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>647.99999999999898</v>
+      </c>
+      <c r="B29">
+        <v>0.200309474062247</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>7.0108315921786443E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.25706382504655029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>671.99999999999898</v>
+      </c>
+      <c r="B30">
+        <v>0.20098228377264901</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>7.0343799320427156E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.25792726417489958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>695.99999999999898</v>
+      </c>
+      <c r="B31">
+        <v>0.2039574922896</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>7.1385122301360002E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.26174544843831998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>719.99999999999898</v>
+      </c>
+      <c r="B32">
+        <v>0.207320219380978</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>7.2562076783342297E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.2660609482055884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>743.99999999999898</v>
+      </c>
+      <c r="B33">
+        <v>0.21039722268661401</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>7.3639027940314905E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.27000976911448799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>767.99999999999898</v>
+      </c>
+      <c r="B34">
+        <v>0.21109638987523599</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>7.3883736456332588E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.2709070336732195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>791.99999999999898</v>
+      </c>
+      <c r="B35">
+        <v>0.212846887242886</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>7.4496410535010091E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.27315350529503701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>815.99999999999898</v>
+      </c>
+      <c r="B36">
+        <v>0.21463384835461899</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>7.5121846924116636E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.27544677205509432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>839.99999999999898</v>
+      </c>
+      <c r="B37">
+        <v>0.22113581217695599</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>7.7397534261934589E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.28379095896042683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>863.99999999999898</v>
+      </c>
+      <c r="B38">
+        <v>0.22724602486540901</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>7.9536108702893155E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.29163239857727491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>887.99999999999898</v>
+      </c>
+      <c r="B39">
+        <v>0.23294030195799301</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>8.1529105685297545E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.29894005417942432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>911.99999999999898</v>
+      </c>
+      <c r="B40">
+        <v>0.23642802075694</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>8.274980726492899E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.3034159599714063</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>935.99999999999898</v>
+      </c>
+      <c r="B41">
+        <v>0.23914468279518</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>8.3700638978312994E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.30690234292048096</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>959.99999999999898</v>
+      </c>
+      <c r="B42">
+        <v>0.24343212142027901</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>8.5201242497097651E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.31240455582269139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>983.99999999999898</v>
+      </c>
+      <c r="B43">
+        <v>0.24737870905326001</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>8.6582548168640999E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0.31746934328501697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1007.99999999999</v>
+      </c>
+      <c r="B44">
+        <v>0.249455334110842</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>8.7309366938794694E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0.32013434544224723</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1032</v>
+      </c>
+      <c r="B45">
+        <v>0.25280423026092402</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>8.8481480591323408E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0.32443209550151914</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1056</v>
+      </c>
+      <c r="B46">
+        <v>0.25593327561493701</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>8.9576646465227949E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0.32844770370583581</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1080</v>
+      </c>
+      <c r="B47">
+        <v>0.25786868147046399</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>9.0254038514662391E-2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>0.33093147455376209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1104</v>
+      </c>
+      <c r="B48">
+        <v>0.26104981584902298</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>9.1367435547158038E-2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0.33501393033957944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1128</v>
+      </c>
+      <c r="B49">
+        <v>0.263732259375413</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>9.2306290781394545E-2</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0.33845639953177997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1152</v>
+      </c>
+      <c r="B50">
+        <v>0.26561364768280599</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>9.2964776688982093E-2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>0.34087084785960098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1176</v>
+      </c>
+      <c r="B51">
+        <v>0.270602116808076</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>9.4710740882826591E-2</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0.34727271657036413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1200</v>
+      </c>
+      <c r="B52">
+        <v>0.269322904968538</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>9.4263016738988292E-2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0.3456310613762904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1224</v>
+      </c>
+      <c r="B53">
+        <v>0.27209754390795499</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>9.5234140367784242E-2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0.34919184801520886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1248</v>
+      </c>
+      <c r="B54">
+        <v>0.27423005382613003</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>9.5980518839145504E-2</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0.35192856907686682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1272</v>
+      </c>
+      <c r="B55">
+        <v>0.274936141625435</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>9.6227649568902243E-2</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>0.35283471508597486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1296</v>
+      </c>
+      <c r="B56">
+        <v>0.27852258439739802</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>9.7482904539089296E-2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>0.3574373166433274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1320</v>
+      </c>
+      <c r="B57">
+        <v>0.27875134170055599</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>9.7562969595194587E-2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>0.3577308885157135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1344</v>
+      </c>
+      <c r="B58">
+        <v>0.281393798562249</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>9.8487829496787138E-2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>0.36112204148821947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1368</v>
+      </c>
+      <c r="B59">
+        <v>0.28196583380206097</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>9.8688041830721329E-2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>0.36185615337931154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1392</v>
+      </c>
+      <c r="B60">
+        <v>0.28204628010247401</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>9.8716198035865899E-2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>0.36195939279817496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1416</v>
+      </c>
+      <c r="B61">
+        <v>0.28181971827465602</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>9.86369013961296E-2</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0.36166863845247521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1440</v>
+      </c>
+      <c r="B62">
+        <v>0.28420123875705899</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>9.9470433564970637E-2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>0.36472492307155896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1464</v>
+      </c>
+      <c r="B63">
+        <v>0.28721675663017898</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0.10052586482056264</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>0.3685948376753963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1488</v>
+      </c>
+      <c r="B64">
+        <v>0.28771181000083901</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0.10069913350029365</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>0.36923015616774335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1512</v>
+      </c>
+      <c r="B65">
+        <v>0.29018783185915498</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.10156574115070424</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0.37240771755258223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1536</v>
+      </c>
+      <c r="B66">
+        <v>0.29310549022399202</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0.1025869215783972</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>0.37615204578745637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1560</v>
+      </c>
+      <c r="B67">
+        <v>0.29185253444925802</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C69" si="2">B67*(1-0.65)</f>
+        <v>0.1021483870572403</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D69" si="3">C67*(0.044/0.012)</f>
+        <v>0.37454408587654775</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1584</v>
+      </c>
+      <c r="B68">
+        <v>0.29192962111488102</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>0.10217536739020835</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>0.37464301376409731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1608</v>
+      </c>
+      <c r="B69">
+        <v>0.29447953500789797</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>0.10306783725276429</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>0.37791540326013573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>